--- a/education.xlsx
+++ b/education.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C2">
-        <v>55.55555555555556</v>
+        <v>57.53424657534246</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>58.10810810810811</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="F2">
         <v>19</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6.849315068493151</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
       <c r="E3">
-        <v>6.756756756756757</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -451,16 +451,16 @@
         </is>
       </c>
       <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>12.32876712328767</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
       <c r="E4">
-        <v>12.16216216216216</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -476,16 +476,16 @@
         </is>
       </c>
       <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>12.32876712328767</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="D5">
-        <v>9</v>
-      </c>
       <c r="E5">
-        <v>12.16216216216216</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5.47945205479452</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>5.555555555555555</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
       <c r="E6">
-        <v>5.405405405405405</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -520,11 +520,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>5.405405405405405</v>
+      <c r="C7">
+        <v>5.47945205479452</v>
       </c>
       <c r="F7">
         <v>6</v>
